--- a/ujian.xlsx
+++ b/ujian.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pribadi\coba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pribadi\coba\Quisoner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="301">
   <si>
     <t>Timestamp</t>
   </si>
@@ -925,33 +925,6 @@
   </si>
   <si>
     <t>Y2</t>
-  </si>
-  <si>
-    <t>JUMLAH</t>
-  </si>
-  <si>
-    <t>nilai_max</t>
-  </si>
-  <si>
-    <t>%Rata Item</t>
-  </si>
-  <si>
-    <t>rata% keseluruhan</t>
-  </si>
-  <si>
-    <t>standar deviasi</t>
-  </si>
-  <si>
-    <t>M-1sd</t>
-  </si>
-  <si>
-    <t>M+1sd</t>
-  </si>
-  <si>
-    <t>SEDANG</t>
-  </si>
-  <si>
-    <t>TINGGI</t>
   </si>
 </sst>
 </file>
@@ -1351,9 +1324,9 @@
   </sheetPr>
   <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y97" sqref="Y97"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z94" sqref="Z94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8875,258 +8848,74 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>301</v>
-      </c>
-      <c r="G94" s="15">
-        <f>SUM(G4:G93)</f>
-        <v>366</v>
-      </c>
-      <c r="H94" s="15">
-        <f t="shared" ref="H94:Z94" si="0">SUM(H4:H93)</f>
-        <v>363</v>
-      </c>
-      <c r="I94" s="15">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="J94" s="15">
-        <f t="shared" si="0"/>
-        <v>332</v>
-      </c>
-      <c r="K94" s="15">
-        <f t="shared" si="0"/>
-        <v>362</v>
-      </c>
-      <c r="L94" s="15">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="M94" s="15">
-        <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="N94" s="15">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="O94" s="14">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="P94" s="14">
-        <f t="shared" si="0"/>
-        <v>352</v>
-      </c>
-      <c r="Q94" s="14">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="R94" s="14">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="S94" s="14">
-        <f t="shared" si="0"/>
-        <v>357</v>
-      </c>
-      <c r="T94" s="15">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="U94" s="15">
-        <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
-      <c r="V94" s="15">
-        <f t="shared" si="0"/>
-        <v>348</v>
-      </c>
-      <c r="W94" s="14">
-        <f t="shared" si="0"/>
-        <v>322</v>
-      </c>
-      <c r="X94" s="14">
-        <f t="shared" si="0"/>
-        <v>362</v>
-      </c>
-      <c r="Y94" s="15">
-        <f t="shared" si="0"/>
-        <v>329</v>
-      </c>
-      <c r="Z94" s="15">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G95" s="16">
-        <f>G94/$B$104</f>
-        <v>0.81333333333333335</v>
-      </c>
-      <c r="H95" s="16">
-        <f t="shared" ref="H95:K95" si="1">H94/$B$104</f>
-        <v>0.80666666666666664</v>
-      </c>
-      <c r="I95" s="16">
-        <f t="shared" si="1"/>
-        <v>0.76666666666666672</v>
-      </c>
-      <c r="J95" s="16">
-        <f t="shared" si="1"/>
-        <v>0.73777777777777775</v>
-      </c>
-      <c r="K95" s="16">
-        <f t="shared" si="1"/>
-        <v>0.80444444444444441</v>
-      </c>
-      <c r="L95" s="16">
-        <f t="shared" ref="L95" si="2">L94/$B$104</f>
-        <v>0.76666666666666672</v>
-      </c>
-      <c r="M95" s="16">
-        <f t="shared" ref="M95" si="3">M94/$B$104</f>
-        <v>0.75777777777777777</v>
-      </c>
-      <c r="N95" s="16">
-        <f t="shared" ref="N95:O95" si="4">N94/$B$104</f>
-        <v>0.78</v>
-      </c>
-      <c r="O95" s="17">
-        <f t="shared" si="4"/>
-        <v>0.78</v>
-      </c>
-      <c r="P95" s="17">
-        <f t="shared" ref="P95" si="5">P94/$B$104</f>
-        <v>0.78222222222222226</v>
-      </c>
-      <c r="Q95" s="17">
-        <f t="shared" ref="Q95" si="6">Q94/$B$104</f>
-        <v>0.80666666666666664</v>
-      </c>
-      <c r="R95" s="17">
-        <f t="shared" ref="R95:S95" si="7">R94/$B$104</f>
-        <v>0.8</v>
-      </c>
-      <c r="S95" s="17">
-        <f t="shared" si="7"/>
-        <v>0.79333333333333333</v>
-      </c>
-      <c r="T95" s="16">
-        <f t="shared" ref="T95" si="8">T94/$B$104</f>
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="U95" s="16">
-        <f t="shared" ref="U95" si="9">U94/$B$104</f>
-        <v>0.74</v>
-      </c>
-      <c r="V95" s="16">
-        <f t="shared" ref="V95:W95" si="10">V94/$B$104</f>
-        <v>0.77333333333333332</v>
-      </c>
-      <c r="W95" s="17">
-        <f t="shared" si="10"/>
-        <v>0.7155555555555555</v>
-      </c>
-      <c r="X95" s="17">
-        <f t="shared" ref="X95" si="11">X94/$B$104</f>
-        <v>0.80444444444444441</v>
-      </c>
-      <c r="Y95" s="16">
-        <f t="shared" ref="Y95" si="12">Y94/$B$104</f>
-        <v>0.73111111111111116</v>
-      </c>
-      <c r="Z95" s="16">
-        <f t="shared" ref="Z95" si="13">Z94/$B$104</f>
-        <v>0.60666666666666669</v>
-      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="18">
-        <f>AVERAGE(G95:N95)</f>
-        <v>0.77916666666666679</v>
-      </c>
-      <c r="O96" s="18">
-        <f>AVERAGE(O95:S95)</f>
-        <v>0.7924444444444444</v>
-      </c>
-      <c r="T96" s="18">
-        <f>AVERAGE(T95:V95)</f>
-        <v>0.7340740740740741</v>
-      </c>
-      <c r="W96" s="18">
-        <f>AVERAGE(W95:X95)</f>
-        <v>0.76</v>
-      </c>
-      <c r="Y96" s="18">
-        <f>AVERAGE(Y95:Z95)</f>
-        <v>0.66888888888888887</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="O97" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="T97" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="W97" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y97" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104">
-        <f>90*5</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>304</v>
-      </c>
-      <c r="B105" s="18">
-        <f>AVERAGE(G95:Z95)</f>
-        <v>0.76277777777777789</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>305</v>
-      </c>
-      <c r="B106" s="19">
-        <f>STDEV(G95:Z95)</f>
-        <v>5.0023386343654802E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>306</v>
-      </c>
-      <c r="B107" s="18">
-        <f>B105-B106</f>
-        <v>0.71275439143412311</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>307</v>
-      </c>
-      <c r="B108" s="18">
-        <f>B105+B106</f>
-        <v>0.81280116412143266</v>
-      </c>
+      <c r="G96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="Y96" s="18"/>
+    </row>
+    <row r="97" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="Y97" s="20"/>
+    </row>
+    <row r="105" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="18"/>
+    </row>
+    <row r="106" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+    </row>
+    <row r="107" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="18"/>
+    </row>
+    <row r="108" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
